--- a/data/trans_camb/P27A_3-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P27A_3-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,12 +680,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -647,32 +695,62 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -685,12 +763,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,32 +778,62 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 0,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 0,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 0,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,12 +846,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -753,32 +861,62 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>190,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>462,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>304,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -834,6 +972,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -848,27 +1016,27 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -878,17 +1046,47 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -901,27 +1099,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 0,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -931,17 +1129,47 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 0,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 0,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,27 +1182,27 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>96,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -984,17 +1212,47 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>54,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>418,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1050,6 +1308,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1069,40 +1357,70 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1122,7 +1440,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1137,7 +1455,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1152,10 +1470,40 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1175,7 +1523,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1190,7 +1538,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1205,10 +1553,40 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1266,6 +1644,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 0,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 0,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>185,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>472,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>339,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>431,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>264,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>451,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1469,30 +1967,67 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,05; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>24,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
